--- a/plantillas/riego.xlsx
+++ b/plantillas/riego.xlsx
@@ -173,6 +173,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -194,12 +195,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial Black"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="18"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -207,11 +210,13 @@
       <color rgb="FF000090"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="18"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -219,6 +224,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -226,17 +232,20 @@
       <color rgb="FF000090"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="18"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="18"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -244,6 +253,7 @@
       <color rgb="FF865357"/>
       <name val="Antique-OliveTh"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -251,11 +261,13 @@
       <color rgb="FF000090"/>
       <name val="Antique-OliveTh"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -263,17 +275,20 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -281,11 +296,13 @@
       <color rgb="FF000090"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -293,11 +310,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -305,6 +324,7 @@
       <color rgb="FF000090"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -312,12 +332,14 @@
       <color rgb="FF000090"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -326,6 +348,7 @@
       <color rgb="FFDD0806"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -529,7 +552,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
@@ -841,9 +866,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4082040</xdr:colOff>
+      <xdr:colOff>4081680</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>988200</xdr:rowOff>
+      <xdr:rowOff>987840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -856,8 +881,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3528360" y="12769200"/>
-          <a:ext cx="2788200" cy="976320"/>
+          <a:off x="3528360" y="12515040"/>
+          <a:ext cx="2787840" cy="975960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -878,9 +903,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1635120</xdr:colOff>
+      <xdr:colOff>1634760</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>992160</xdr:rowOff>
+      <xdr:rowOff>991800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -893,8 +918,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6274440" y="12769200"/>
-          <a:ext cx="2092320" cy="980280"/>
+          <a:off x="6274440" y="12515040"/>
+          <a:ext cx="2091960" cy="979920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -915,7 +940,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1893240</xdr:colOff>
+      <xdr:colOff>1892880</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>981000</xdr:rowOff>
     </xdr:to>
@@ -930,8 +955,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9420120" y="12721680"/>
-          <a:ext cx="1740960" cy="1016640"/>
+          <a:off x="9419400" y="12467880"/>
+          <a:ext cx="1740600" cy="1016280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -952,9 +977,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>774000</xdr:colOff>
+      <xdr:colOff>773640</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>992160</xdr:rowOff>
+      <xdr:rowOff>991800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -967,8 +992,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="986760" y="12769200"/>
-          <a:ext cx="2021760" cy="980280"/>
+          <a:off x="986760" y="12515040"/>
+          <a:ext cx="2021400" cy="979920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -990,16 +1015,16 @@
   </sheetPr>
   <dimension ref="A1:DE572"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="63.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="35.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
   </cols>
@@ -1787,7 +1812,7 @@
       <c r="CD9" s="2"/>
       <c r="CE9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12"/>
       <c r="B10" s="13" t="n">
         <v>1</v>
@@ -1795,11 +1820,10 @@
       <c r="C10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="15" t="n">
-        <v>2120000</v>
-      </c>
+      <c r="D10" s="15"/>
       <c r="E10" s="16" t="n">
-        <v>2120000</v>
+        <f aca="false">D10</f>
+        <v>0</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1880,7 +1904,7 @@
       <c r="CD10" s="2"/>
       <c r="CE10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12"/>
       <c r="B11" s="13" t="n">
         <v>1</v>
@@ -1888,11 +1912,10 @@
       <c r="C11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="15" t="n">
-        <v>670000</v>
-      </c>
+      <c r="D11" s="15"/>
       <c r="E11" s="16" t="n">
-        <v>670000</v>
+        <f aca="false">D11</f>
+        <v>0</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1973,7 +1996,7 @@
       <c r="CD11" s="2"/>
       <c r="CE11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12"/>
       <c r="B12" s="13" t="n">
         <v>1</v>
@@ -1981,11 +2004,10 @@
       <c r="C12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="15" t="n">
-        <v>1100000</v>
-      </c>
+      <c r="D12" s="15"/>
       <c r="E12" s="16" t="n">
-        <v>1100000</v>
+        <f aca="false">D12</f>
+        <v>0</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -2417,7 +2439,7 @@
       </c>
       <c r="E17" s="25" t="n">
         <f aca="false">SUM(E10:E16)</f>
-        <v>3890000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -4447,11 +4469,9 @@
       <c r="DD35" s="2"/>
       <c r="DE35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="33"/>
-      <c r="B36" s="34" t="n">
-        <v>1</v>
-      </c>
+      <c r="B36" s="34"/>
       <c r="C36" s="35" t="s">
         <v>28</v>
       </c>
@@ -4536,11 +4556,9 @@
       <c r="CD36" s="2"/>
       <c r="CE36" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="33"/>
-      <c r="B37" s="34" t="n">
-        <v>1</v>
-      </c>
+      <c r="B37" s="34"/>
       <c r="C37" s="35" t="s">
         <v>29</v>
       </c>
@@ -4625,11 +4643,9 @@
       <c r="CD37" s="2"/>
       <c r="CE37" s="2"/>
     </row>
-    <row r="38" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="33"/>
-      <c r="B38" s="34" t="n">
-        <v>21</v>
-      </c>
+      <c r="B38" s="34"/>
       <c r="C38" s="35" t="s">
         <v>30</v>
       </c>
@@ -4714,11 +4730,9 @@
       <c r="CD38" s="2"/>
       <c r="CE38" s="2"/>
     </row>
-    <row r="39" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="33"/>
-      <c r="B39" s="34" t="n">
-        <v>6</v>
-      </c>
+      <c r="B39" s="34"/>
       <c r="C39" s="35" t="s">
         <v>31</v>
       </c>
@@ -4803,11 +4817,9 @@
       <c r="CD39" s="2"/>
       <c r="CE39" s="2"/>
     </row>
-    <row r="40" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="33"/>
-      <c r="B40" s="34" t="n">
-        <v>6</v>
-      </c>
+      <c r="B40" s="34"/>
       <c r="C40" s="35" t="s">
         <v>32</v>
       </c>
@@ -4892,11 +4904,9 @@
       <c r="CD40" s="2"/>
       <c r="CE40" s="2"/>
     </row>
-    <row r="41" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="33"/>
-      <c r="B41" s="34" t="n">
-        <v>1</v>
-      </c>
+      <c r="B41" s="34"/>
       <c r="C41" s="35" t="s">
         <v>33</v>
       </c>
@@ -4981,11 +4991,9 @@
       <c r="CD41" s="2"/>
       <c r="CE41" s="2"/>
     </row>
-    <row r="42" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="33"/>
-      <c r="B42" s="34" t="n">
-        <v>1</v>
-      </c>
+      <c r="B42" s="34"/>
       <c r="C42" s="35" t="s">
         <v>34</v>
       </c>
